--- a/src/main/resources/templates/excel/student_template.xlsx
+++ b/src/main/resources/templates/excel/student_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15网工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15计创</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +62,6 @@
   </si>
   <si>
     <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,50 +409,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
